--- a/功能模块测试用例.xlsx
+++ b/功能模块测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="428">
   <si>
     <t>[招聘信息管理系统]项目测试用例</t>
   </si>
@@ -1273,6 +1273,238 @@
   </si>
   <si>
     <t>显示制作者信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功，点击“我的功能”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功，点击“我的功能”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“我的消息”，点击“我的请求”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“我的消息”，点击“我的回复”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“我的消息”，点击“我的请求”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“我的消息”，点击“我的回复”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“招聘记录”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示招聘记录界面，等待学生或企业完成请求，接受到招聘记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收到招聘记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示我的请求，等待学生发送请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示我的请求，等待企业发送请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生发送请求后受到请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业发送请求后受到请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到回复后显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示我的回复，等待学生回复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示我的回复，等待企业回复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到回复后显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“学生查询”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等有学生注册后显示学生记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示现有学生</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“企业活动”或者“校园活动”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等企业或校园上传活动后显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示现有活动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“招聘信息”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待公司发送招聘信息后显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示现有招聘信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“企业审核”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待企业上传审核材料后，进行审核</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到企业的审核材料，如还未上传显示暂无图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“企业删除”或者“学生删除”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除学生用户和企业用户的所有信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除学生和企业所有信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的回复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1企业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘信息查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园招聘信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园公司审核</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园用户删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2学生</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3校园招聘信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2.2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2.3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业审核</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“上传审核材料”和“审核状态”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无审核材料上传时，状态显示未上传，有审核材料上传时，校方还未验证，状态显示审核进行中，校方通过审核，显示审核通过，校方不通过审核，显示审核不通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                             6 集成测试</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1583,7 +1815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1637,6 +1869,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1661,44 +1932,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2002,11 +2246,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L92"/>
+  <dimension ref="B1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
+      <pane ySplit="4" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2027,30 +2271,30 @@
   <sheetData>
     <row r="1" spans="2:12" ht="7.5" customHeight="1"/>
     <row r="2" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="2:12" ht="28.8">
       <c r="B4" s="4" t="s">
@@ -2082,10 +2326,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2109,8 +2353,8 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="2:12" ht="43.2">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
@@ -2132,8 +2376,8 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
@@ -2155,8 +2399,8 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="43.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
@@ -2180,8 +2424,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="28.8">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2203,8 +2447,8 @@
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="28.8">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
@@ -2226,8 +2470,8 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="28.8">
-      <c r="B11" s="28"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
@@ -2249,8 +2493,8 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="28.8">
-      <c r="B12" s="28"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2274,8 +2518,8 @@
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="2:12" ht="28.8">
-      <c r="B13" s="28"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="9" t="s">
         <v>38</v>
       </c>
@@ -2297,8 +2541,8 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="2:12" ht="28.8">
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="9" t="s">
         <v>42</v>
       </c>
@@ -2320,8 +2564,8 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:12" ht="28.8">
-      <c r="B15" s="28"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="9" t="s">
         <v>46</v>
       </c>
@@ -2343,8 +2587,8 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:12" ht="28.8">
-      <c r="B16" s="28"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="9" t="s">
         <v>50</v>
       </c>
@@ -2366,10 +2610,10 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" ht="28.8">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2393,8 +2637,8 @@
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10" ht="28.8">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="9" t="s">
         <v>61</v>
       </c>
@@ -2416,8 +2660,8 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="28.8">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="9" t="s">
         <v>66</v>
       </c>
@@ -2439,8 +2683,8 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:10" ht="28.8">
-      <c r="B20" s="28"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="29" t="s">
         <v>328</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2464,8 +2708,8 @@
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="2:10" ht="28.8">
-      <c r="B21" s="28"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="9" t="s">
         <v>71</v>
       </c>
@@ -2487,8 +2731,8 @@
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="2:10" ht="28.8">
-      <c r="B22" s="28"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
@@ -2510,8 +2754,8 @@
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10" ht="43.2">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="31" t="s">
         <v>315</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -2535,8 +2779,8 @@
       <c r="J23" s="17"/>
     </row>
     <row r="24" spans="2:10" ht="28.8">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="9" t="s">
         <v>317</v>
       </c>
@@ -2560,8 +2804,8 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="28.8">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="9" t="s">
         <v>314</v>
       </c>
@@ -2583,8 +2827,8 @@
       <c r="J25" s="17"/>
     </row>
     <row r="26" spans="2:10" ht="28.8">
-      <c r="B26" s="28"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2608,8 +2852,8 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="28.8">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="9" t="s">
         <v>94</v>
       </c>
@@ -2631,8 +2875,8 @@
       <c r="J27" s="17"/>
     </row>
     <row r="28" spans="2:10" ht="28.8">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="9" t="s">
         <v>99</v>
       </c>
@@ -2656,8 +2900,8 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="28.8">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="10" t="s">
         <v>103</v>
       </c>
@@ -2681,8 +2925,8 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="43.2">
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="9" t="s">
         <v>106</v>
       </c>
@@ -2706,8 +2950,8 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="28.8">
-      <c r="B31" s="28"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="29" t="s">
         <v>110</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -2731,8 +2975,8 @@
       <c r="J31" s="17"/>
     </row>
     <row r="32" spans="2:10" ht="28.8">
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="9" t="s">
         <v>114</v>
       </c>
@@ -2754,8 +2998,8 @@
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="2:10" ht="28.8">
-      <c r="B33" s="28"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="9" t="s">
         <v>119</v>
       </c>
@@ -2777,8 +3021,8 @@
       <c r="J33" s="17"/>
     </row>
     <row r="34" spans="2:10" ht="28.8">
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="9" t="s">
         <v>124</v>
       </c>
@@ -2800,8 +3044,8 @@
       <c r="J34" s="17"/>
     </row>
     <row r="35" spans="2:10" ht="28.8">
-      <c r="B35" s="28"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="9" t="s">
         <v>128</v>
       </c>
@@ -2823,8 +3067,8 @@
       <c r="J35" s="17"/>
     </row>
     <row r="36" spans="2:10" ht="28.8">
-      <c r="B36" s="28"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="9" t="s">
         <v>131</v>
       </c>
@@ -2846,8 +3090,8 @@
       <c r="J36" s="17"/>
     </row>
     <row r="37" spans="2:10" ht="28.8">
-      <c r="B37" s="28"/>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="29" t="s">
         <v>135</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -2871,8 +3115,8 @@
       <c r="J37" s="17"/>
     </row>
     <row r="38" spans="2:10" ht="28.8">
-      <c r="B38" s="28"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="9" t="s">
         <v>139</v>
       </c>
@@ -2894,7 +3138,7 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="2:10" ht="28.8">
-      <c r="B39" s="28"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="33"/>
       <c r="D39" s="13" t="s">
         <v>141</v>
@@ -2917,8 +3161,8 @@
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="2:10" ht="28.8">
-      <c r="B40" s="28"/>
-      <c r="C40" s="31" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="29" t="s">
         <v>324</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -2942,8 +3186,8 @@
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" ht="28.8">
-      <c r="B41" s="28"/>
-      <c r="C41" s="31"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="9" t="s">
         <v>146</v>
       </c>
@@ -2965,8 +3209,8 @@
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" ht="28.8">
-      <c r="B42" s="28"/>
-      <c r="C42" s="31" t="s">
+      <c r="B42" s="27"/>
+      <c r="C42" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -2990,8 +3234,8 @@
       <c r="J42" s="17"/>
     </row>
     <row r="43" spans="2:10" ht="28.8">
-      <c r="B43" s="28"/>
-      <c r="C43" s="31"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="9" t="s">
         <v>154</v>
       </c>
@@ -3013,10 +3257,10 @@
       <c r="J43" s="18"/>
     </row>
     <row r="44" spans="2:10" ht="28.8">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="31" t="s">
         <v>160</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -3040,8 +3284,8 @@
       <c r="J44" s="16"/>
     </row>
     <row r="45" spans="2:10" ht="28.8">
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="9" t="s">
         <v>162</v>
       </c>
@@ -3063,8 +3307,8 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="2:10" ht="28.8">
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="9" t="s">
         <v>163</v>
       </c>
@@ -3086,8 +3330,8 @@
       <c r="J46" s="17"/>
     </row>
     <row r="47" spans="2:10" ht="28.8">
-      <c r="B47" s="28"/>
-      <c r="C47" s="31" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="29" t="s">
         <v>164</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -3111,8 +3355,8 @@
       <c r="J47" s="17"/>
     </row>
     <row r="48" spans="2:10" ht="28.8">
-      <c r="B48" s="28"/>
-      <c r="C48" s="31"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="9" t="s">
         <v>168</v>
       </c>
@@ -3134,8 +3378,8 @@
       <c r="J48" s="17"/>
     </row>
     <row r="49" spans="2:10" ht="28.8">
-      <c r="B49" s="28"/>
-      <c r="C49" s="31"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="9" t="s">
         <v>170</v>
       </c>
@@ -3157,8 +3401,8 @@
       <c r="J49" s="17"/>
     </row>
     <row r="50" spans="2:10" ht="28.8">
-      <c r="B50" s="28"/>
-      <c r="C50" s="32" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="30" t="s">
         <v>172</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -3182,8 +3426,8 @@
       <c r="J50" s="17"/>
     </row>
     <row r="51" spans="2:10" ht="28.8">
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="9" t="s">
         <v>176</v>
       </c>
@@ -3205,8 +3449,8 @@
       <c r="J51" s="17"/>
     </row>
     <row r="52" spans="2:10" ht="28.8">
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="9" t="s">
         <v>181</v>
       </c>
@@ -3228,8 +3472,8 @@
       <c r="J52" s="17"/>
     </row>
     <row r="53" spans="2:10" ht="28.8">
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="9" t="s">
         <v>185</v>
       </c>
@@ -3251,8 +3495,8 @@
       <c r="J53" s="17"/>
     </row>
     <row r="54" spans="2:10" ht="28.8">
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="9" t="s">
         <v>188</v>
       </c>
@@ -3274,8 +3518,8 @@
       <c r="J54" s="17"/>
     </row>
     <row r="55" spans="2:10" ht="28.8">
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="9" t="s">
         <v>188</v>
       </c>
@@ -3297,8 +3541,8 @@
       <c r="J55" s="17"/>
     </row>
     <row r="56" spans="2:10" ht="28.8">
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="9" t="s">
         <v>192</v>
       </c>
@@ -3320,8 +3564,8 @@
       <c r="J56" s="17"/>
     </row>
     <row r="57" spans="2:10" ht="28.8">
-      <c r="B57" s="28"/>
-      <c r="C57" s="32" t="s">
+      <c r="B57" s="27"/>
+      <c r="C57" s="30" t="s">
         <v>197</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -3345,8 +3589,8 @@
       <c r="J57" s="17"/>
     </row>
     <row r="58" spans="2:10" ht="28.8">
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="9" t="s">
         <v>201</v>
       </c>
@@ -3368,8 +3612,8 @@
       <c r="J58" s="17"/>
     </row>
     <row r="59" spans="2:10" ht="28.8">
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="9" t="s">
         <v>206</v>
       </c>
@@ -3391,8 +3635,8 @@
       <c r="J59" s="17"/>
     </row>
     <row r="60" spans="2:10" ht="28.8">
-      <c r="B60" s="28"/>
-      <c r="C60" s="29"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="10" t="s">
         <v>209</v>
       </c>
@@ -3416,8 +3660,8 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="57.6">
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="9" t="s">
         <v>211</v>
       </c>
@@ -3439,8 +3683,8 @@
       <c r="J61" s="17"/>
     </row>
     <row r="62" spans="2:10" ht="28.8">
-      <c r="B62" s="28"/>
-      <c r="C62" s="31" t="s">
+      <c r="B62" s="27"/>
+      <c r="C62" s="29" t="s">
         <v>214</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -3464,8 +3708,8 @@
       <c r="J62" s="17"/>
     </row>
     <row r="63" spans="2:10" ht="28.8">
-      <c r="B63" s="28"/>
-      <c r="C63" s="31"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="9" t="s">
         <v>218</v>
       </c>
@@ -3487,8 +3731,8 @@
       <c r="J63" s="17"/>
     </row>
     <row r="64" spans="2:10" ht="28.8">
-      <c r="B64" s="28"/>
-      <c r="C64" s="31"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="9" t="s">
         <v>223</v>
       </c>
@@ -3512,8 +3756,8 @@
       </c>
     </row>
     <row r="65" spans="2:10" ht="28.8">
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="9" t="s">
         <v>225</v>
       </c>
@@ -3537,8 +3781,8 @@
       </c>
     </row>
     <row r="66" spans="2:10" ht="28.8">
-      <c r="B66" s="28"/>
-      <c r="C66" s="31" t="s">
+      <c r="B66" s="27"/>
+      <c r="C66" s="29" t="s">
         <v>227</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -3562,8 +3806,8 @@
       <c r="J66" s="17"/>
     </row>
     <row r="67" spans="2:10" ht="43.2">
-      <c r="B67" s="28"/>
-      <c r="C67" s="31"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="9" t="s">
         <v>231</v>
       </c>
@@ -3585,8 +3829,8 @@
       <c r="J67" s="18"/>
     </row>
     <row r="68" spans="2:10" ht="43.2">
-      <c r="B68" s="28"/>
-      <c r="C68" s="32"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="12" t="s">
         <v>235</v>
       </c>
@@ -3610,10 +3854,10 @@
       </c>
     </row>
     <row r="69" spans="2:10" ht="28.8">
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="29" t="s">
         <v>238</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -3637,8 +3881,8 @@
       <c r="J69" s="17"/>
     </row>
     <row r="70" spans="2:10" ht="43.2">
-      <c r="B70" s="28"/>
-      <c r="C70" s="31"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="29"/>
       <c r="D70" s="9" t="s">
         <v>242</v>
       </c>
@@ -3660,8 +3904,8 @@
       <c r="J70" s="17"/>
     </row>
     <row r="71" spans="2:10" ht="43.2">
-      <c r="B71" s="28"/>
-      <c r="C71" s="31"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="9" t="s">
         <v>246</v>
       </c>
@@ -3685,8 +3929,8 @@
       </c>
     </row>
     <row r="72" spans="2:10" ht="28.8">
-      <c r="B72" s="28"/>
-      <c r="C72" s="32" t="s">
+      <c r="B72" s="27"/>
+      <c r="C72" s="30" t="s">
         <v>249</v>
       </c>
       <c r="D72" s="9" t="s">
@@ -3710,8 +3954,8 @@
       <c r="J72" s="17"/>
     </row>
     <row r="73" spans="2:10" ht="28.8">
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="9" t="s">
         <v>253</v>
       </c>
@@ -3733,8 +3977,8 @@
       <c r="J73" s="17"/>
     </row>
     <row r="74" spans="2:10" ht="28.8">
-      <c r="B74" s="28"/>
-      <c r="C74" s="29"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="9" t="s">
         <v>256</v>
       </c>
@@ -3756,8 +4000,8 @@
       <c r="J74" s="17"/>
     </row>
     <row r="75" spans="2:10" ht="28.8">
-      <c r="B75" s="28"/>
-      <c r="C75" s="32" t="s">
+      <c r="B75" s="27"/>
+      <c r="C75" s="30" t="s">
         <v>260</v>
       </c>
       <c r="D75" s="9" t="s">
@@ -3781,8 +4025,8 @@
       <c r="J75" s="17"/>
     </row>
     <row r="76" spans="2:10" ht="28.8">
-      <c r="B76" s="28"/>
-      <c r="C76" s="29"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="9" t="s">
         <v>264</v>
       </c>
@@ -3804,8 +4048,8 @@
       <c r="J76" s="17"/>
     </row>
     <row r="77" spans="2:10" ht="28.8">
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="9" t="s">
         <v>269</v>
       </c>
@@ -3827,8 +4071,8 @@
       <c r="J77" s="17"/>
     </row>
     <row r="78" spans="2:10" ht="28.8">
-      <c r="B78" s="28"/>
-      <c r="C78" s="31" t="s">
+      <c r="B78" s="27"/>
+      <c r="C78" s="29" t="s">
         <v>273</v>
       </c>
       <c r="D78" s="9" t="s">
@@ -3852,8 +4096,8 @@
       <c r="J78" s="17"/>
     </row>
     <row r="79" spans="2:10" ht="28.8">
-      <c r="B79" s="28"/>
-      <c r="C79" s="31"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="29"/>
       <c r="D79" s="9" t="s">
         <v>277</v>
       </c>
@@ -3875,8 +4119,8 @@
       <c r="J79" s="17"/>
     </row>
     <row r="80" spans="2:10" ht="43.2">
-      <c r="B80" s="28"/>
-      <c r="C80" s="31"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="9" t="s">
         <v>282</v>
       </c>
@@ -3898,8 +4142,8 @@
       <c r="J80" s="17"/>
     </row>
     <row r="81" spans="2:10" ht="28.8">
-      <c r="B81" s="28"/>
-      <c r="C81" s="31" t="s">
+      <c r="B81" s="27"/>
+      <c r="C81" s="29" t="s">
         <v>286</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -3923,8 +4167,8 @@
       <c r="J81" s="17"/>
     </row>
     <row r="82" spans="2:10" ht="28.8">
-      <c r="B82" s="28"/>
-      <c r="C82" s="31"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="9" t="s">
         <v>290</v>
       </c>
@@ -3946,8 +4190,8 @@
       <c r="J82" s="18"/>
     </row>
     <row r="83" spans="2:10" ht="43.2">
-      <c r="B83" s="28"/>
-      <c r="C83" s="32"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="12" t="s">
         <v>294</v>
       </c>
@@ -3968,166 +4212,445 @@
       </c>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" ht="28.8">
-      <c r="B84" s="34" t="s">
+    <row r="84" spans="2:10" ht="28.8" customHeight="1">
+      <c r="B84" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="21" t="s">
         <v>340</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F84" s="38" t="s">
+      <c r="F84" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="G84" s="39" t="s">
+      <c r="G84" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="H84" s="39" t="s">
+      <c r="H84" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I84" s="39" t="s">
+      <c r="I84" s="24" t="s">
         <v>350</v>
       </c>
       <c r="J84" s="17"/>
     </row>
     <row r="85" spans="2:10" ht="28.8">
-      <c r="B85" s="28"/>
-      <c r="C85" s="36" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="21" t="s">
         <v>341</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F85" s="38" t="s">
+      <c r="F85" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="G85" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="I85" s="39" t="s">
+      <c r="I85" s="24" t="s">
         <v>349</v>
       </c>
       <c r="J85" s="17"/>
     </row>
     <row r="86" spans="2:10" ht="28.8">
-      <c r="B86" s="28"/>
-      <c r="C86" s="35" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="21" t="s">
         <v>342</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="38" t="s">
+      <c r="F86" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="G86" s="39" t="s">
+      <c r="G86" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="39" t="s">
+      <c r="H86" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="I86" s="39" t="s">
+      <c r="I86" s="24" t="s">
         <v>355</v>
       </c>
       <c r="J86" s="17"/>
     </row>
     <row r="87" spans="2:10" ht="28.8">
-      <c r="B87" s="28"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="36" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="F87" s="38" t="s">
+      <c r="F87" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="G87" s="39" t="s">
+      <c r="G87" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="I87" s="39" t="s">
+      <c r="I87" s="24" t="s">
         <v>364</v>
       </c>
       <c r="J87" s="18"/>
     </row>
     <row r="88" spans="2:10" ht="28.8">
-      <c r="B88" s="28"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="37" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E88" s="40" t="s">
+      <c r="E88" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="F88" s="38" t="s">
+      <c r="F88" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="G88" s="39" t="s">
+      <c r="G88" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="H88" s="39" t="s">
+      <c r="H88" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="I88" s="39" t="s">
+      <c r="I88" s="24" t="s">
         <v>362</v>
       </c>
       <c r="J88" s="20"/>
     </row>
     <row r="89" spans="2:10" ht="28.8">
-      <c r="B89" s="28"/>
-      <c r="C89" s="36" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="D89" s="36" t="s">
+      <c r="D89" s="21" t="s">
         <v>365</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F89" s="38" t="s">
+      <c r="F89" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G89" s="39" t="s">
+      <c r="G89" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="H89" s="39" t="s">
+      <c r="H89" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="I89" s="39" t="s">
+      <c r="I89" s="24" t="s">
         <v>369</v>
       </c>
       <c r="J89" s="17"/>
     </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="28"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="28"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="28"/>
+    <row r="90" spans="2:10" ht="28.8" customHeight="1">
+      <c r="B90" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="2:10" ht="28.8">
+      <c r="B91" s="27"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J91" s="17"/>
+    </row>
+    <row r="92" spans="2:10" ht="28.8">
+      <c r="B92" s="27"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="J92" s="17"/>
+    </row>
+    <row r="93" spans="2:10" ht="86.4">
+      <c r="B93" s="27"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="2:10" ht="28.8" customHeight="1">
+      <c r="B94" s="27"/>
+      <c r="C94" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="J94" s="17"/>
+    </row>
+    <row r="95" spans="2:10" ht="28.8">
+      <c r="B95" s="27"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="J95" s="17"/>
+    </row>
+    <row r="96" spans="2:10" ht="28.8">
+      <c r="B96" s="27"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="2:10" ht="43.2" customHeight="1">
+      <c r="B97" s="27"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="I97" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="2:10" ht="43.2">
+      <c r="B98" s="27"/>
+      <c r="C98" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="I98" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="J98" s="17"/>
+    </row>
+    <row r="99" spans="2:10" ht="28.8">
+      <c r="B99" s="27"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="I99" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="2:10" ht="28.8">
+      <c r="B100" s="27"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="I100" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B84:B92"/>
+  <mergeCells count="33">
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B43"/>
+    <mergeCell ref="B44:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="C86:C88"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="C72:C74"/>
@@ -4135,27 +4658,7 @@
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="C81:C83"/>
     <mergeCell ref="B69:B83"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B43"/>
-    <mergeCell ref="B44:B68"/>
-    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C90:C93"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
